--- a/Aurora/Process/PTW-Timesheet .xlsx
+++ b/Aurora/Process/PTW-Timesheet .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aspire-Team Aurora project\Project\Aurora\Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57ECF1E6-2B49-46D1-A3DC-64CDA1C3C69F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7F0B0D0-451D-4EC6-A750-74AB49BBC143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="218">
   <si>
     <t>Resource Name</t>
   </si>
@@ -748,6 +748,15 @@
   <si>
     <t xml:space="preserve">
 </t>
+  </si>
+  <si>
+    <t>Working on Operations and Services</t>
+  </si>
+  <si>
+    <t>SoftSkill Session
+Session on High level design with Rafi
+Review Session with Rafi
+Started working on the Refining of operations in Datamodel</t>
   </si>
 </sst>
 </file>
@@ -2342,8 +2351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C081B83-E4F9-48C7-866F-0458E5F9EE36}">
   <dimension ref="E7:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2531,11 +2540,19 @@
       <c r="E18" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="38"/>
-      <c r="G18" s="42"/>
+      <c r="F18" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="G18" s="42" t="s">
+        <v>217</v>
+      </c>
       <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
+      <c r="I18" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="J18" s="30">
+        <v>1</v>
+      </c>
       <c r="K18" s="23" t="s">
         <v>60</v>
       </c>

--- a/Aurora/Process/PTW-Timesheet .xlsx
+++ b/Aurora/Process/PTW-Timesheet .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aspire-Team Aurora project\Project\Aurora\Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFAE624F-9F7F-4889-B1A4-DA059203C593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B81F8462-83EB-402E-9044-6686B47C27D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="18" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2215" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2217" uniqueCount="552">
   <si>
     <t>Resource Name</t>
   </si>
@@ -2231,6 +2231,9 @@
   </si>
   <si>
     <t>Refined the Spam View Page</t>
+  </si>
+  <si>
+    <t>Fun Friday Activity</t>
   </si>
 </sst>
 </file>
@@ -15532,31 +15535,33 @@
         <v>0.375</v>
       </c>
       <c r="E78" s="59">
-        <v>0.43472222222222223</v>
+        <v>0.4201388888888889</v>
       </c>
       <c r="F78" s="59">
         <f>E78-D78</f>
-        <v>5.9722222222222232E-2</v>
+        <v>4.5138888888888895E-2</v>
       </c>
       <c r="H78" s="60" t="s">
         <v>382</v>
       </c>
       <c r="I78" s="59">
         <f>SUMIFS(F77:F91, C77:C91,H78)</f>
-        <v>0.15138888888888896</v>
+        <v>0.12013888888888896</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="64"/>
-      <c r="B79" s="43"/>
+      <c r="B79" s="43" t="s">
+        <v>551</v>
+      </c>
       <c r="C79" s="43" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D79" s="59">
-        <v>0.4375</v>
+        <v>0.4236111111111111</v>
       </c>
       <c r="E79" s="59">
-        <v>0.46875</v>
+        <v>0.4548611111111111</v>
       </c>
       <c r="F79" s="59">
         <f>E79-D79</f>
@@ -15567,24 +15572,26 @@
       </c>
       <c r="I79" s="59">
         <f>SUMIFS(F77:F91, C77:C91,H79)</f>
-        <v>5.9722222222222232E-2</v>
+        <v>7.6388888888888895E-2</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="64"/>
-      <c r="B80" s="43"/>
+      <c r="B80" s="43" t="s">
+        <v>385</v>
+      </c>
       <c r="C80" s="43" t="s">
         <v>386</v>
       </c>
       <c r="D80" s="59">
-        <v>0.46875</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="E80" s="59">
-        <v>0.4826388888888889</v>
+        <v>0.47222222222222227</v>
       </c>
       <c r="F80" s="59">
         <f>E80-D80</f>
-        <v>1.3888888888888895E-2</v>
+        <v>1.3888888888888951E-2</v>
       </c>
       <c r="H80" s="60" t="s">
         <v>387</v>
@@ -15663,7 +15670,7 @@
       </c>
       <c r="I83" s="59">
         <f>SUMIFS(F77:F91, C77:C91,H83)</f>
-        <v>4.5138888888889006E-2</v>
+        <v>4.5138888888889062E-2</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -15687,7 +15694,7 @@
       </c>
       <c r="I84" s="57">
         <f>SUM(I78:I83)</f>
-        <v>0.36527777777777803</v>
+        <v>0.35069444444444475</v>
       </c>
     </row>
     <row r="85" spans="1:9">

--- a/Aurora/Process/PTW-Timesheet .xlsx
+++ b/Aurora/Process/PTW-Timesheet .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aspire-Team Aurora project\Project\Aurora\Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B81F8462-83EB-402E-9044-6686B47C27D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{378DEBC6-3E19-4D5E-9B08-733A80EB0DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="18" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2217" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2234" uniqueCount="558">
   <si>
     <t>Resource Name</t>
   </si>
@@ -2143,7 +2143,7 @@
     <t>Complaint System for Error(Buffering Screen) , Checked and temporarly resolved</t>
   </si>
   <si>
-    <t>Meetting with Rafi</t>
+    <t>Meetting with Rafi and system error has heen retified (Monitor has been changed)</t>
   </si>
   <si>
     <t>Explored about the article services for webapi</t>
@@ -2218,7 +2218,25 @@
     <t>Worked on navigability for userside</t>
   </si>
   <si>
+    <t>working on specific article page,Query layout</t>
+  </si>
+  <si>
     <t>Explored on WebApi crud and return type</t>
+  </si>
+  <si>
+    <t>Worked on Code tag and collapsible in Query side layout</t>
+  </si>
+  <si>
+    <t>System admin</t>
+  </si>
+  <si>
+    <t>Working on Article view page</t>
+  </si>
+  <si>
+    <t>Exploring on components in angular</t>
+  </si>
+  <si>
+    <t>Working on  Article view page on Like,share,comment,make it responsive</t>
   </si>
   <si>
     <t>Identifying the Components for creating Angular components</t>
@@ -9907,17 +9925,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="38" priority="12" operator="greaterThan">
@@ -9983,8 +10001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E3682D-F14F-4D28-8A78-318A919FB5C5}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="B123" sqref="B123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11394,11 +11412,11 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="E63" s="59">
-        <v>0.4375</v>
+        <v>0.43472222222222223</v>
       </c>
       <c r="F63" s="59">
         <f t="shared" si="0"/>
-        <v>4.1666666666666685E-2</v>
+        <v>3.8888888888888917E-2</v>
       </c>
       <c r="H63" s="60" t="s">
         <v>382</v>
@@ -11431,7 +11449,7 @@
       </c>
       <c r="I64" s="59">
         <f>SUMIFS(F62:F76, C62:C76,H64)</f>
-        <v>0.12291666666666667</v>
+        <v>0.12013888888888891</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -11561,7 +11579,7 @@
       </c>
       <c r="I69" s="57">
         <f t="shared" ref="I69" si="28">SUM(I63:I68)</f>
-        <v>0.4479166666666668</v>
+        <v>0.44513888888888903</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -12359,7 +12377,7 @@
       </c>
       <c r="I108" s="59">
         <f t="shared" ref="I108" si="43">SUMIFS(F107:F121, C107:C121,H108)</f>
-        <v>0.22291666666666665</v>
+        <v>0.26458333333333328</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -12515,7 +12533,7 @@
       </c>
       <c r="I114" s="57">
         <f t="shared" ref="I114" si="49">SUM(I108:I113)</f>
-        <v>0.43749999999999994</v>
+        <v>0.47916666666666657</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -12621,13 +12639,13 @@
         <v>546</v>
       </c>
       <c r="C120" s="43" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D120" s="59">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="E120" s="59">
-        <v>0.91666666666666663</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="F120" s="59">
         <f t="shared" si="25"/>
@@ -12636,32 +12654,42 @@
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="64"/>
-      <c r="B121" s="43"/>
-      <c r="C121" s="43"/>
-      <c r="D121" s="59"/>
-      <c r="E121" s="59"/>
+      <c r="B121" s="43" t="s">
+        <v>547</v>
+      </c>
+      <c r="C121" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="D121" s="59">
+        <v>0.875</v>
+      </c>
+      <c r="E121" s="59">
+        <v>0.91666666666666663</v>
+      </c>
       <c r="F121" s="59">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
       </c>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="B122" s="43"/>
+      <c r="B122" s="43" t="s">
+        <v>535</v>
+      </c>
       <c r="C122" s="43" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D122" s="59">
         <v>0.375</v>
       </c>
       <c r="E122" s="59">
-        <v>0.38541666666666669</v>
+        <v>0.3972222222222222</v>
       </c>
       <c r="F122" s="59">
         <f t="shared" si="25"/>
-        <v>1.0416666666666685E-2</v>
+        <v>2.2222222222222199E-2</v>
       </c>
       <c r="H122" s="57" t="s">
         <v>380</v>
@@ -12672,291 +12700,319 @@
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="64"/>
-      <c r="B123" s="43"/>
+      <c r="B123" s="43" t="s">
+        <v>453</v>
+      </c>
       <c r="C123" s="43" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D123" s="59">
-        <v>0.38541666666666669</v>
+        <v>0.3972222222222222</v>
       </c>
       <c r="E123" s="59">
-        <v>0.44791666666666669</v>
+        <v>0.43472222222222223</v>
       </c>
       <c r="F123" s="59">
         <f t="shared" si="25"/>
-        <v>6.25E-2</v>
+        <v>3.7500000000000033E-2</v>
       </c>
       <c r="H123" s="60" t="s">
         <v>382</v>
       </c>
       <c r="I123" s="59">
         <f t="shared" ref="I123" si="50">SUMIFS(F122:F136, C122:C136,H123)</f>
-        <v>0.22222222222222227</v>
+        <v>0.29583333333333334</v>
       </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="64"/>
-      <c r="B124" s="43"/>
+      <c r="B124" s="43" t="s">
+        <v>548</v>
+      </c>
       <c r="C124" s="43" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D124" s="59">
-        <v>0.44791666666666669</v>
+        <v>0.43472222222222223</v>
       </c>
       <c r="E124" s="59">
-        <v>0.45833333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="F124" s="59">
         <f t="shared" si="25"/>
-        <v>1.041666666666663E-2</v>
+        <v>6.5277777777777768E-2</v>
       </c>
       <c r="H124" s="60" t="s">
         <v>384</v>
       </c>
       <c r="I124" s="59">
         <f t="shared" ref="I124" si="51">SUMIFS(F122:F136, C122:C136,H124)</f>
-        <v>4.166666666666663E-2</v>
+        <v>5.4861111111111194E-2</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="64"/>
-      <c r="B125" s="43"/>
+      <c r="B125" s="43" t="s">
+        <v>412</v>
+      </c>
       <c r="C125" s="43" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D125" s="59">
-        <v>0.45833333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="E125" s="59">
-        <v>0.46666666666666662</v>
+        <v>0.50694444444444442</v>
       </c>
       <c r="F125" s="59">
         <f t="shared" si="25"/>
-        <v>8.3333333333333037E-3</v>
+        <v>6.9444444444444198E-3</v>
       </c>
       <c r="H125" s="60" t="s">
         <v>387</v>
       </c>
       <c r="I125" s="59">
         <f t="shared" ref="I125" si="52">SUMIFS(F122:F136, C122:C136,H125)</f>
-        <v>6.25E-2</v>
+        <v>3.472222222222221E-2</v>
       </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="64"/>
-      <c r="B126" s="43"/>
+      <c r="B126" s="43" t="s">
+        <v>538</v>
+      </c>
       <c r="C126" s="43" t="s">
         <v>382</v>
       </c>
       <c r="D126" s="59">
-        <v>0.46666666666666662</v>
+        <v>0.50694444444444442</v>
       </c>
       <c r="E126" s="59">
-        <v>0.47222222222222227</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="F126" s="59">
         <f t="shared" si="25"/>
-        <v>5.5555555555556468E-3</v>
+        <v>6.9444444444445308E-3</v>
       </c>
       <c r="H126" s="60" t="s">
         <v>379</v>
       </c>
       <c r="I126" s="59">
         <f t="shared" ref="I126" si="53">SUMIFS(F122:F136, C122:C136,H126)</f>
-        <v>2.569444444444452E-2</v>
+        <v>3.7499999999999867E-2</v>
       </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="64"/>
-      <c r="B127" s="43"/>
+      <c r="B127" s="43" t="s">
+        <v>539</v>
+      </c>
       <c r="C127" s="43" t="s">
         <v>382</v>
       </c>
       <c r="D127" s="59">
-        <v>0.47222222222222227</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="E127" s="59">
-        <v>0.49305555555555558</v>
+        <v>0.54513888888888895</v>
       </c>
       <c r="F127" s="59">
         <f t="shared" si="25"/>
-        <v>2.0833333333333315E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="H127" s="60" t="s">
         <v>390</v>
       </c>
       <c r="I127" s="59">
         <f t="shared" ref="I127" si="54">SUMIFS(F122:F136, C122:C136,H127)</f>
-        <v>2.430555555555558E-2</v>
+        <v>3.7500000000000089E-2</v>
       </c>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="64"/>
-      <c r="B128" s="43"/>
+      <c r="B128" s="43" t="s">
+        <v>406</v>
+      </c>
       <c r="C128" s="43" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D128" s="59">
-        <v>0.49305555555555558</v>
+        <v>0.54513888888888895</v>
       </c>
       <c r="E128" s="59">
-        <v>0.52083333333333337</v>
+        <v>0.57430555555555551</v>
       </c>
       <c r="F128" s="59">
         <f t="shared" si="25"/>
-        <v>2.777777777777779E-2</v>
+        <v>2.9166666666666563E-2</v>
       </c>
       <c r="H128" s="60" t="s">
         <v>386</v>
       </c>
       <c r="I128" s="59">
         <f t="shared" ref="I128" si="55">SUMIFS(F122:F136, C122:C136,H128)</f>
-        <v>3.472222222222221E-2</v>
+        <v>1.0499999999999998</v>
       </c>
     </row>
     <row r="129" spans="1:9">
       <c r="A129" s="64"/>
-      <c r="B129" s="43"/>
+      <c r="B129" s="43" t="s">
+        <v>416</v>
+      </c>
       <c r="C129" s="43" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="D129" s="59">
-        <v>0.52083333333333337</v>
+        <v>0.57430555555555551</v>
       </c>
       <c r="E129" s="59">
-        <v>0.54166666666666663</v>
+        <v>0.6118055555555556</v>
       </c>
       <c r="F129" s="59">
         <f t="shared" si="25"/>
-        <v>2.0833333333333259E-2</v>
+        <v>3.7500000000000089E-2</v>
       </c>
       <c r="H129" s="56" t="s">
         <v>394</v>
       </c>
       <c r="I129" s="57">
         <f t="shared" ref="I129" si="56">SUM(I123:I128)</f>
-        <v>0.4111111111111112</v>
+        <v>1.5104166666666665</v>
       </c>
     </row>
     <row r="130" spans="1:9">
       <c r="A130" s="64"/>
-      <c r="B130" s="43"/>
+      <c r="B130" s="43" t="s">
+        <v>542</v>
+      </c>
       <c r="C130" s="43" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="D130" s="59">
-        <v>0.54166666666666663</v>
+        <v>0.6118055555555556</v>
       </c>
       <c r="E130" s="59">
-        <v>0.56597222222222221</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="F130" s="59">
         <f t="shared" si="25"/>
-        <v>2.430555555555558E-2</v>
+        <v>2.3611111111111027E-2</v>
       </c>
       <c r="I130" s="61"/>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" s="64"/>
-      <c r="B131" s="43"/>
+      <c r="B131" s="43" t="s">
+        <v>549</v>
+      </c>
       <c r="C131" s="43" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D131" s="59">
-        <v>0.57291666666666663</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="E131" s="59">
-        <v>0.59722222222222221</v>
+        <v>0.65277777777777779</v>
       </c>
       <c r="F131" s="59">
         <f t="shared" ref="F131:F194" si="57">E131-D131</f>
-        <v>2.430555555555558E-2</v>
+        <v>1.736111111111116E-2</v>
       </c>
       <c r="I131" s="61"/>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" s="64"/>
-      <c r="B132" s="43"/>
+      <c r="B132" s="43" t="s">
+        <v>550</v>
+      </c>
       <c r="C132" s="43" t="s">
         <v>379</v>
       </c>
       <c r="D132" s="59">
-        <v>0.60277777777777775</v>
+        <v>0.65277777777777779</v>
       </c>
       <c r="E132" s="59">
-        <v>0.61805555555555558</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F132" s="59">
         <f t="shared" si="57"/>
-        <v>1.5277777777777835E-2</v>
+        <v>1.388888888888884E-2</v>
       </c>
     </row>
     <row r="133" spans="1:9">
       <c r="A133" s="64"/>
-      <c r="B133" s="43"/>
+      <c r="B133" s="43" t="s">
+        <v>435</v>
+      </c>
       <c r="C133" s="43" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D133" s="59">
-        <v>0.61111111111111105</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E133" s="59">
-        <v>0.64583333333333337</v>
+        <v>0.67361111111111116</v>
       </c>
       <c r="F133" s="59">
         <f t="shared" si="57"/>
-        <v>3.4722222222222321E-2</v>
+        <v>6.9444444444445308E-3</v>
       </c>
     </row>
     <row r="134" spans="1:9">
       <c r="A134" s="64"/>
-      <c r="B134" s="43"/>
+      <c r="B134" s="43" t="s">
+        <v>551</v>
+      </c>
       <c r="C134" s="43" t="s">
         <v>387</v>
       </c>
       <c r="D134" s="59">
-        <v>0.64583333333333337</v>
+        <v>0.67361111111111116</v>
       </c>
       <c r="E134" s="59">
         <v>0.70833333333333337</v>
       </c>
       <c r="F134" s="59">
         <f t="shared" si="57"/>
-        <v>6.25E-2</v>
+        <v>3.472222222222221E-2</v>
       </c>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" s="64"/>
-      <c r="B135" s="43"/>
+      <c r="B135" s="43" t="s">
+        <v>385</v>
+      </c>
       <c r="C135" s="43" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D135" s="59">
         <v>0.70833333333333337</v>
       </c>
       <c r="E135" s="59">
-        <v>0.75</v>
+        <v>1.7152777777777777</v>
       </c>
       <c r="F135" s="59">
         <f t="shared" si="57"/>
-        <v>4.166666666666663E-2</v>
+        <v>1.0069444444444442</v>
       </c>
     </row>
     <row r="136" spans="1:9">
       <c r="A136" s="64"/>
-      <c r="B136" s="62"/>
+      <c r="B136" s="62" t="s">
+        <v>552</v>
+      </c>
       <c r="C136" s="43" t="s">
         <v>382</v>
       </c>
       <c r="D136" s="59">
-        <v>0.875</v>
+        <v>0.71527777777777779</v>
       </c>
       <c r="E136" s="59">
-        <v>0.91666666666666663</v>
+        <v>0.88541666666666663</v>
       </c>
       <c r="F136" s="59">
         <f t="shared" si="57"/>
-        <v>4.166666666666663E-2</v>
+        <v>0.17013888888888884</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -13547,17 +13603,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="25" priority="12" operator="greaterThan">
@@ -13963,7 +14019,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="C2" s="43" t="s">
         <v>382</v>
@@ -14587,7 +14643,7 @@
         <v>11</v>
       </c>
       <c r="B32" s="43" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="C32" s="43" t="s">
         <v>382</v>
@@ -15501,7 +15557,7 @@
         <v>14</v>
       </c>
       <c r="B77" s="43" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="C77" s="43" t="s">
         <v>382</v>
@@ -15526,7 +15582,7 @@
     <row r="78" spans="1:9">
       <c r="A78" s="64"/>
       <c r="B78" s="43" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="C78" s="43" t="s">
         <v>384</v>
@@ -15552,7 +15608,7 @@
     <row r="79" spans="1:9">
       <c r="A79" s="64"/>
       <c r="B79" s="43" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="C79" s="43" t="s">
         <v>384</v>
@@ -17288,17 +17344,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="12" priority="12" operator="greaterThan">
